--- a/价格数据初步调整_客户A.xlsx
+++ b/价格数据初步调整_客户A.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1068"/>
+  <dimension ref="A1:F1134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23943,6 +23943,1458 @@
         <v>57.2</v>
       </c>
     </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>59.243</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>59.63</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>59.062</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>58.568</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>58.285</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>51.905</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>52.119</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>51.768</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>43.138</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>43.569</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>43.099</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>42.297</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>42.302</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>41.694</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>57.477</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>56.942</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>59.238</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>59.554</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>59.091</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>58.371</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>58.844</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>58.312</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>51.842</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>52.038</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>51.664</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1078" t="n">
+        <v>43.087</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>43.815</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>42.913</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>42.255</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>42.291</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>57.461</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>57.632</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>57.18</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>59.269</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>59.621</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>59.023</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>58.312</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>58.637</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>58.161</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>51.898</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>52.018</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>51.814</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>43.24</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>43.801</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>43.221</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>42.527</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>42.727</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>41.917</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>57.478</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>57.531</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>56.784</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>59.129</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>59.648</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>59.11</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>58.46</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>58.852</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>58.438</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1089" t="n">
+        <v>51.814</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>52.045</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>51.59</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1090" t="n">
+        <v>43.183</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>43.752</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>43.167</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1091" t="n">
+        <v>42.402</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>42.575</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>42.175</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1092" t="n">
+        <v>57.702</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>57.925</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>57.115</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1093" t="n">
+        <v>59.313</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>59.727</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>59.044</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1094" t="n">
+        <v>58.319</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>58.889</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>58.182</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1095" t="n">
+        <v>51.844</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>51.912</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>51.679</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1096" t="n">
+        <v>43.273</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>43.639</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>43.267</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1097" t="n">
+        <v>42.638</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>42.802</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>42.243</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1098" t="n">
+        <v>57.261</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>57.465</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>56.874</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1099" t="n">
+        <v>59.435</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>59.602</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>59.308</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1100" t="n">
+        <v>58.435</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>58.534</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>58.351</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1101" t="n">
+        <v>51.481</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>52.249</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>51.399</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1102" t="n">
+        <v>43.419</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>43.791</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>43.302</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1103" t="n">
+        <v>42.669</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>42.854</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>42.144</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1104" t="n">
+        <v>57.282</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>57.548</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>56.853</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1105" t="n">
+        <v>59.331</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>59.516</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1106" t="n">
+        <v>58.355</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>58.683</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>58.29</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1107" t="n">
+        <v>51.769</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>52.094</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>51.691</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1108" t="n">
+        <v>43.342</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>43.817</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>43.133</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1109" t="n">
+        <v>42.537</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>42.647</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>42.176</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1110" t="n">
+        <v>57.261</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>57.358</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>56.795</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1111" t="n">
+        <v>59.003</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>59.643</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>58.948</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1112" t="n">
+        <v>58.243</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>58.605</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1113" t="n">
+        <v>51.472</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>52.008</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>51.449</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1114" t="n">
+        <v>43.183</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>43.62</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>43.047</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1115" t="n">
+        <v>42.685</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>42.848</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>42.324</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1116" t="n">
+        <v>57.449</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>57.732</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>57.096</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1117" t="n">
+        <v>59.014</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>59.748</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>58.857</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1118" t="n">
+        <v>58.295</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>58.524</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>58.229</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1119" t="n">
+        <v>51.246</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>51.077</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1120" t="n">
+        <v>43.252</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>43.437</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>43.052</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1121" t="n">
+        <v>42.464</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>42.662</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>42.256</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1122" t="n">
+        <v>57.328</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>57.378</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>56.705</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1123" t="n">
+        <v>59.301</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>59.305</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>58.859</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1124" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>57.873</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>57.174</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1125" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>50.96</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>50.565</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1126" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>43.453</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>43.169</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1127" t="n">
+        <v>42.373</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>42.538</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>41.798</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1128" t="n">
+        <v>56.824</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>57.03</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>56.319</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>去盖臀肉</t>
+        </is>
+      </c>
+      <c r="C1129" t="n">
+        <v>58.771</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>59.581</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>58.537</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>大米龙</t>
+        </is>
+      </c>
+      <c r="C1130" t="n">
+        <v>57.709</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>58.109</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>57.64</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>牛前八件套</t>
+        </is>
+      </c>
+      <c r="C1131" t="n">
+        <v>50.875</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>51.374</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>50.774</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>牛前后</t>
+        </is>
+      </c>
+      <c r="C1132" t="n">
+        <v>43.359</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>43.302</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>牛腩</t>
+        </is>
+      </c>
+      <c r="C1133" t="n">
+        <v>42.357</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>42.496</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>41.821</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>牛霖</t>
+        </is>
+      </c>
+      <c r="C1134" t="n">
+        <v>56.928</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>56.523</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
